--- a/data/trans_bre/P12A1_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P12A1_2_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-12,98</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-11,23</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-7,62</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,36</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-26,86%</t>
+          <t>-3,3</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-24,34%</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-17,73%</t>
+          <t>-32,09%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-14,64%</t>
+          <t>-14,02%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-15,63%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3,62%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-25,67%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-3,4%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-28,96; 5,88</t>
+          <t>-4,61; 0,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-26,88; 4,25</t>
+          <t>-3,39; 1,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,76; 8,45</t>
+          <t>-3,2; 1,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,98; 3,98</t>
+          <t>-3,21; 3,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-49,8; 17,09</t>
+          <t>-6,54; -0,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-49,11; 10,26</t>
+          <t>-3,63; 2,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-42,82; 22,63</t>
+          <t>-55,53; 6,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-32,04; 7,88</t>
+          <t>-44,38; 27,26</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-44,91; 36,08</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-34,45; 54,74</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-44,46; -0,56</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-27,79; 26,8</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-8,5</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-23,52</t>
+          <t>-2,56</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-8,44</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-20,73</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-14,88%</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-36,11%</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-14,36%</t>
+          <t>21,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-34,19%</t>
+          <t>-29,61%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0,9%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>22,83%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-29,69%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-23,04%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-24,73; 9,23</t>
+          <t>-2,03; 4,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-39,14; -9,51</t>
+          <t>-5,35; 0,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,03; 6,93</t>
+          <t>-3,67; 3,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-44,2; 2,83</t>
+          <t>-1,87; 4,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,93; 19,89</t>
+          <t>-10,43; 2,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,16; -16,41</t>
+          <t>-7,45; 3,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-36,82; 13,6</t>
+          <t>-23,6; 88,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-62,39; 5,4</t>
+          <t>-52,44; 5,19</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-33,51; 53,28</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-24,29; 101,89</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-66,64; 34,08</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-55,02; 38,02</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-19,51</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,67</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>3,11</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-45,49%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>51,34%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-12,33%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>14,31%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-39,87%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>67,41%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-61,82; 12,16</t>
+          <t>-5,45; 4,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 42,53</t>
+          <t>-4,29; 6,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,41; 19,99</t>
+          <t>-7,83; 2,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-2,92; 9,32</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-89,36; 87,52</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-24,45; 228,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-64,97; 146,77</t>
+          <t>-82,87; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-51,8; 162,08</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-79,8; 76,0</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-45,95; 429,41</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-11,11</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-11,9</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-5,35</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-11,02</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-21,75%</t>
+          <t>-3,27</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-23,52%</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-11,74%</t>
+          <t>-6,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-19,06%</t>
+          <t>-18,82%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-11,18%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>16,18%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-26,24%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-7,66%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,83; -0,24</t>
+          <t>-2,49; 1,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,09; -0,76</t>
+          <t>-3,27; 0,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,93; 5,73</t>
+          <t>-2,77; 1,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,99; -1,07</t>
+          <t>-1,12; 3,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,23; -1,22</t>
+          <t>-6,32; -0,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-39,2; -1,62</t>
+          <t>-3,62; 1,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-30,93; 14,93</t>
+          <t>-31,99; 23,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-33,66; -2,4</t>
+          <t>-38,67; 5,87</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-33,45; 19,4</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-14,01; 53,77</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-43,55; -3,04</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-28,86; 20,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P12A1_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P12A1_2_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-2,19</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,88</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,93</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,28</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-3,3</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-0,37</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-32,09%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-14,02%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-15,63%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>3,62%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-25,67%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-3,4%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-2.446562352978883</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.8297428363946112</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.8096529111282516</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.1074244209146688</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-3.296356024075989</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.4244648974666282</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.3503803650556468</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.1346873283051841</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.1400941860453853</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.01378670475433035</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-0.2566974208190549</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.03862972826474988</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,61; 0,33</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,39; 1,46</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,2; 1,48</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-3,21; 3,18</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-6,54; -0,12</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-3,63; 2,53</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-55,53; 6,58</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-44,38; 27,26</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-44,91; 36,08</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-34,45; 54,74</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-44,46; -0,56</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-27,79; 26,8</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.317869813065656</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.32557040301476</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.073195996488921</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-3.355401202740275</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-6.544334481618337</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-3.683302560496774</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.5829556959559306</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.4414099379188959</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.4433651443638103</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.3601520553504131</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.4445905330296342</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.279027111745364</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.108635470417447</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.456324319389062</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.548874950127374</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>2.967341346705883</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-0.1163038180644254</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>2.468603130690497</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.04027644483333345</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.3099870484612451</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.3739044263552777</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.4978974882171211</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>-0.005647333105339986</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.2684867785378343</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,54</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,56</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,51</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-3,35</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-2,5</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>21,23%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-29,61%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,9%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>22,83%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-29,69%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-23,04%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,03; 4,97</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-5,35; 0,34</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,67; 3,33</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-1,87; 4,99</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-10,43; 2,14</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-7,45; 3,01</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-23,6; 88,78</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-52,44; 5,19</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-33,51; 53,28</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-24,29; 101,89</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-66,64; 34,08</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-55,02; 38,02</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.08900986897841662</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-2.571897597292406</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.002651044297694027</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.417905331176464</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-3.351656131795311</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-2.766745932392741</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.010726343363036</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.3009316442867644</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.0003081102519805717</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.2123618352135361</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>-0.2969053608342788</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>-0.2515894579860609</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,29</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,91</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-2,61</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,11</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>8,71%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>14,31%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-39,87%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>67,41%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.144431989858989</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-5.416483731220675</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-3.63212367302762</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-1.994391879895319</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-10.42910929565071</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-7.679328417323504</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.3814245900284001</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.5281294731324105</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3384009990300098</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.2428635078039514</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.6664032168787265</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.5673902702065341</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-5,45; 4,82</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,29; 6,43</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-7,83; 2,08</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-2,92; 9,32</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-82,87; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-51,8; 162,08</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-79,8; 76,0</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-45,95; 429,41</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.63310091469043</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.2966671570561915</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.452493450599282</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5.026180592369051</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>2.142853798279772</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>2.736558253657558</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.5595152551416791</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.06524717232530966</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.5481293793273805</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.022046453903007</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.3407767332305046</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.3448777882895901</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,45</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,36</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,79</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,12</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-3,27</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-0,84</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-6,81%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-18,82%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-11,18%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>16,18%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-26,24%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-7,66%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-1.316658415004055</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.9306534702927749</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-2.575975603755827</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>3.261168807569837</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.2743717491154365</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1471125443659224</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.3945754124723087</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.7315642892329071</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,49; 1,32</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,27; 0,32</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-2,77; 1,15</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,12; 3,19</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-6,32; -0,37</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-3,62; 1,85</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-31,99; 23,6</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-38,67; 5,87</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-33,45; 19,4</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-14,01; 53,77</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-43,55; -3,04</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-28,86; 20,64</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-13.00333936057109</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.323403299073602</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-7.897273030902409</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-2.60189696018181</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.927905712290197</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.5234153115760514</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.7977489524997771</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.4503001994127082</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.529543655790806</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.212340130275322</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.086707434576861</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>9.399991115280129</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>3.185205596785028</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.652489686397782</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.7648639348309197</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>4.490651381663674</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-1.341148709604653</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.34268367669546</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.7616342293137555</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.015284538509159</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-3.272798139447257</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.9403257997173037</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.185205274879142</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1881360430693755</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.108747465798808</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.1463138581244013</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>-0.2624451480388164</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.0855602206034789</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.600253960137017</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.233384353158935</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-2.749645922057146</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.227176664870784</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-6.321874382845913</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-3.752014373949139</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.4175430236422037</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3826068112959466</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.3329602625375279</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1480934641781382</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.4354871016017973</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.2934754026073127</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.5143632158847098</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.3282041032284641</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.130769177560313</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.062195222376022</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>-0.3688995766730493</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1.715790763286644</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.08615357080294948</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.06596542370280481</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.1915409193963111</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.5206462003176691</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>-0.03041725788953471</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.1941356014781637</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
